--- a/cep-report/Evaluation.xlsx
+++ b/cep-report/Evaluation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Advith\Documents\OVS\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Advith\Documents\Report\cep-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="E" sheetId="2" r:id="rId1"/>
@@ -24,11 +24,13 @@
     <sheet name="String Length" sheetId="10" r:id="rId10"/>
     <sheet name="Flow Percentage" sheetId="12" r:id="rId11"/>
     <sheet name="match tp_dst" sheetId="11" r:id="rId12"/>
-    <sheet name="size1" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet4" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet5" sheetId="17" r:id="rId17"/>
+    <sheet name="event sizes" sheetId="13" r:id="rId13"/>
+    <sheet name="Percentage filtered" sheetId="14" r:id="rId14"/>
+    <sheet name="compare ops - disbale &amp;1" sheetId="15" r:id="rId15"/>
+    <sheet name="compare ops" sheetId="16" r:id="rId16"/>
+    <sheet name="basic - dpdk" sheetId="17" r:id="rId17"/>
+    <sheet name="stateful ops" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="210">
   <si>
     <t>OVS-DEV: 100K datagrams, type=RX(8288)</t>
   </si>
@@ -628,6 +630,48 @@
   </si>
   <si>
     <t xml:space="preserve">        avg processing cycles per packet: 20472.92 (4977416552/243122)</t>
+  </si>
+  <si>
+    <t>set_mov_max</t>
+  </si>
+  <si>
+    <t>set_win,set_mov_max</t>
+  </si>
+  <si>
+    <t>5 out of 150</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>max idle time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabled megaflow </t>
+  </si>
+  <si>
+    <t>set_max:10</t>
+  </si>
+  <si>
+    <t>redirect to stream</t>
+  </si>
+  <si>
+    <t>disabled megaflow  set_max:10 redirect to stream</t>
+  </si>
+  <si>
+    <t>config idle time 1 nd disabled</t>
+  </si>
+  <si>
+    <t>EVS enabled megaflow redirect to stream no op</t>
+  </si>
+  <si>
+    <t>OVS Clean</t>
+  </si>
+  <si>
+    <t>No operation - redirection</t>
+  </si>
+  <si>
+    <t>attr1&lt;=10</t>
   </si>
 </sst>
 </file>
@@ -8894,7 +8938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF112"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
+    <sheetView topLeftCell="C76" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -11781,7 +11825,7 @@
   <dimension ref="A2:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:V38"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13050,8 +13094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I71" sqref="I71:I75"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13869,8 +13913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T107"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15833,8 +15877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H2:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T11" activeCellId="5" sqref="J11 L11 N11 P11 R11 T11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16318,8 +16362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z60" sqref="Z60"/>
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16459,7 +16503,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" ref="R9:R17" si="0">_xlfn.CONCAT("(",T9,",",U9,")")</f>
+        <f>_xlfn.CONCAT("(",T9,",",U9,")")</f>
         <v>(2,0.85)</v>
       </c>
       <c r="T9" s="2">
@@ -16469,7 +16513,7 @@
         <v>0.85</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" ref="V9:V17" si="1">_xlfn.CONCAT("(",X9,",",Y9,")")</f>
+        <f t="shared" ref="V9:V17" si="0">_xlfn.CONCAT("(",X9,",",Y9,")")</f>
         <v>(2,1.05)</v>
       </c>
       <c r="W9" s="2"/>
@@ -16494,7 +16538,7 @@
         <v>5</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R9:R17" si="1">_xlfn.CONCAT("(",T10,",",U10,")")</f>
         <v>(3,0.61)</v>
       </c>
       <c r="T10" s="2">
@@ -16504,7 +16548,7 @@
         <v>0.61</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(3,0.6789)</v>
       </c>
       <c r="W10" s="2"/>
@@ -16550,7 +16594,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(4,0.73)</v>
       </c>
       <c r="T11" s="2">
@@ -16560,7 +16604,7 @@
         <v>0.73</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(4,1)</v>
       </c>
       <c r="W11" s="2"/>
@@ -16606,7 +16650,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(5,0.68)</v>
       </c>
       <c r="T12" s="2">
@@ -16616,7 +16660,7 @@
         <v>0.68</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(5,0.816)</v>
       </c>
       <c r="X12" s="2">
@@ -16659,7 +16703,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(6,1.105)</v>
       </c>
       <c r="T13" s="2">
@@ -16669,7 +16713,7 @@
         <v>1.105</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(6,0.79)</v>
       </c>
       <c r="X13" s="2">
@@ -16712,7 +16756,7 @@
         <v>6</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(7,0.63)</v>
       </c>
       <c r="T14" s="2">
@@ -16722,7 +16766,7 @@
         <v>0.63</v>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(7,0.84)</v>
       </c>
       <c r="X14" s="2">
@@ -16765,7 +16809,7 @@
         <v>3</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(8,0.57)</v>
       </c>
       <c r="T15" s="2">
@@ -16775,7 +16819,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(8,0.68)</v>
       </c>
       <c r="X15" s="2">
@@ -16805,7 +16849,7 @@
         <v>6</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(9,0.68)</v>
       </c>
       <c r="T16" s="2">
@@ -16815,7 +16859,7 @@
         <v>0.68</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(9,0.73)</v>
       </c>
       <c r="X16" s="2">
@@ -16844,7 +16888,7 @@
         <v>5</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(10,0.63)</v>
       </c>
       <c r="T17" s="2">
@@ -16854,7 +16898,7 @@
         <v>0.63</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(10,0.84)</v>
       </c>
       <c r="X17" s="2">
@@ -18390,6 +18434,1337 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:M47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.1658</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.CONCAT("(",G4,",",H5,")")</f>
+        <v>(1,0.1641)</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0.1641</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.CONCAT("(",G5,",",H6,")")</f>
+        <v>(2,0.1846)</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0.18459999999999999</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.1618</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.CONCAT("(",G6,",",H7,")")</f>
+        <v>(3,0.1731)</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0.1731</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("(",G7,",",H8,")")</f>
+        <v>(4,0.1815)</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.1789</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("(",G8,",",H9,")")</f>
+        <v>(5,0.1694)</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0.1694</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.1928</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("(",G9,",",H10,")")</f>
+        <v>(6,0.168)</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("(",G10,",",H11,")")</f>
+        <v>(7,0.1628)</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0.1628</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("(",G11,",",H12,")")</f>
+        <v>(8,0.1665)</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.1694</v>
+      </c>
+      <c r="E13" t="str">
+        <f>_xlfn.CONCAT("(",G12,",",H13,")")</f>
+        <v>(9,0.173)</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.CONCAT("(",G13,",",H14,")")</f>
+        <v>(10,0.1757)</v>
+      </c>
+      <c r="H14">
+        <v>0.1757</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H15" t="e">
+        <f>G4:G13=AVERAGE(H5:H14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15">
+        <v>55</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0.25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f>_xlfn.CONCAT("(",G33,",",H33,")")</f>
+        <v>(7,0.22)</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>0.22</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <f>100-((I33*100)/159)</f>
+        <v>92.452830188679243</v>
+      </c>
+      <c r="M33">
+        <v>92.452830188679243</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E47" si="0">_xlfn.CONCAT("(",G34,",",H34,")")</f>
+        <v>(8,0.26)</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>0.26</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J38" si="1">100-((I34*100)/159)</f>
+        <v>96.855345911949684</v>
+      </c>
+      <c r="M34">
+        <v>96.855345911949684</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,0.21)</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>0.21</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>95.59748427672956</v>
+      </c>
+      <c r="M35">
+        <v>95.59748427672956</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0.22)</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>0.22</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>96.855345911949684</v>
+      </c>
+      <c r="M36">
+        <v>96.855345911949684</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,0.257)</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>94.339622641509436</v>
+      </c>
+      <c r="M37">
+        <v>94.339622641509436</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,0.23)</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>0.23</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>94.968553459119491</v>
+      </c>
+      <c r="M38">
+        <v>94.968553459119491</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,0.22)</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>0.22</v>
+      </c>
+      <c r="I42">
+        <v>28</v>
+      </c>
+      <c r="J42">
+        <f>100-((I42*100)/159)</f>
+        <v>82.389937106918239</v>
+      </c>
+      <c r="M42">
+        <v>82.389937106918239</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,0.224)</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43">
+        <v>0.224</v>
+      </c>
+      <c r="I43">
+        <v>31</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:J47" si="2">100-((I43*100)/159)</f>
+        <v>80.503144654088047</v>
+      </c>
+      <c r="M43">
+        <v>80.503144654088047</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,0.1823)</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>92.452830188679243</v>
+      </c>
+      <c r="M44">
+        <v>92.452830188679243</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0.23)</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>0.23</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>98.113207547169807</v>
+      </c>
+      <c r="M45">
+        <v>98.113207547169807</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,0.1875)</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>0.1875</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>98.742138364779876</v>
+      </c>
+      <c r="M46">
+        <v>98.742138364779876</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,0.176)</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>99.371069182389931</v>
+      </c>
+      <c r="M47">
+        <v>99.371069182389931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="9" max="12" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>_xlfn.CONCAT("(",C4,",",D4,")")</f>
+        <v>(1,0.36)</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.36</v>
+      </c>
+      <c r="I4" t="str">
+        <f>_xlfn.CONCAT("(",L4,",",M4,")")</f>
+        <v>(1,0.57)</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xlfn.CONCAT("(",L4,",",M4,")")</f>
+        <v>(1,0.57)</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R4" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" t="s">
+        <v>202</v>
+      </c>
+      <c r="U4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5:A13" si="0">_xlfn.CONCAT("(",C5,",",D5,")")</f>
+        <v>(2,0.42)</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0.42</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xlfn.CONCAT("(",L5,",",M5,")")</f>
+        <v>(2,0.68)</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J27" si="1">_xlfn.CONCAT("(",L5,",",M5,")")</f>
+        <v>(2,0.68)</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0.68</v>
+      </c>
+      <c r="R5">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,0.57)</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I6" t="str">
+        <f>_xlfn.CONCAT("(",L6,",",M6,")")</f>
+        <v>(3,0.52)</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>(3,0.52)</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0.52</v>
+      </c>
+      <c r="R6">
+        <v>1.7889999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,0.36)</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.36</v>
+      </c>
+      <c r="I7" t="str">
+        <f>_xlfn.CONCAT("(",L7,",",M7,")")</f>
+        <v>(4,0.473)</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>(4,0.473)</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="R7">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,0.47)</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.47</v>
+      </c>
+      <c r="I8" t="str">
+        <f>_xlfn.CONCAT("(",L8,",",M8,")")</f>
+        <v>(5,0.473)</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>(5,0.473)</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="R8">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,0.36)</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0.36</v>
+      </c>
+      <c r="I9" t="str">
+        <f>_xlfn.CONCAT("(",L9,",",M9,")")</f>
+        <v>(6,0.63)</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>(6,0.63)</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>0.63</v>
+      </c>
+      <c r="R9">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,0.63)</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0.63</v>
+      </c>
+      <c r="I10" t="str">
+        <f>_xlfn.CONCAT("(",L10,",",M10,")")</f>
+        <v>(7,0.68)</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>(7,0.68)</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>0.68</v>
+      </c>
+      <c r="R10">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,0.63)</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0.63</v>
+      </c>
+      <c r="I11" t="str">
+        <f>_xlfn.CONCAT("(",L11,",",M11,")")</f>
+        <v>(8,0.73)</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>(8,0.73)</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>0.73</v>
+      </c>
+      <c r="R11">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,0.42)</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0.42</v>
+      </c>
+      <c r="I12" t="str">
+        <f>_xlfn.CONCAT("(",L12,",",M12,")")</f>
+        <v>(9,0.42)</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>(9,0.42)</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>0.42</v>
+      </c>
+      <c r="R12">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,0.42)</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.42</v>
+      </c>
+      <c r="I13" t="str">
+        <f>_xlfn.CONCAT("(",L13,",",M13,")")</f>
+        <v>(10,0.47)</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0.47)</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>0.47</v>
+      </c>
+      <c r="R13">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.42</v>
+      </c>
+      <c r="M14">
+        <f>AVERAGE(M4:M13)</f>
+        <v>0.56459999999999999</v>
+      </c>
+      <c r="R14">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>AVERAGE(D6:D15)</f>
+        <v>0.47499999999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("(",C18,",",D18,")")</f>
+        <v>(1,0.73)</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.73</v>
+      </c>
+      <c r="E18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I18" t="str">
+        <f>_xlfn.CONCAT("(",L18,",",M18,")")</f>
+        <v>(1,0.526)</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,0.526)</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>_xlfn.CONCAT("(",C19,",",D19,")")</f>
+        <v>(2,0.52)</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0.52</v>
+      </c>
+      <c r="E19">
+        <v>0.73</v>
+      </c>
+      <c r="G19">
+        <v>0.73</v>
+      </c>
+      <c r="I19" t="str">
+        <f>_xlfn.CONCAT("(",L19,",",M19,")")</f>
+        <v>(2,0.473)</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>(2,0.473)</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>_xlfn.CONCAT("(",C20,",",D20,")")</f>
+        <v>(3,0.47)</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0.47</v>
+      </c>
+      <c r="E20">
+        <v>0.42</v>
+      </c>
+      <c r="G20">
+        <v>0.42</v>
+      </c>
+      <c r="I20" t="str">
+        <f>_xlfn.CONCAT("(",L20,",",M20,")")</f>
+        <v>(3,0.526)</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>(3,0.526)</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>_xlfn.CONCAT("(",C21,",",D21,")")</f>
+        <v>(4,0.52)</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.52</v>
+      </c>
+      <c r="E21">
+        <v>0.47</v>
+      </c>
+      <c r="G21">
+        <v>0.47</v>
+      </c>
+      <c r="I21" t="str">
+        <f>_xlfn.CONCAT("(",L21,",",M21,")")</f>
+        <v>(4,0.473)</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>(4,0.473)</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("(",C22,",",D22,")")</f>
+        <v>(5,0.42)</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0.42</v>
+      </c>
+      <c r="E22">
+        <v>0.63</v>
+      </c>
+      <c r="G22">
+        <v>0.63</v>
+      </c>
+      <c r="I22" t="str">
+        <f>_xlfn.CONCAT("(",L22,",",M22,")")</f>
+        <v>(5,0.473)</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>(5,0.473)</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>_xlfn.CONCAT("(",C23,",",D23,")")</f>
+        <v>(6,0.26)</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>0.26</v>
+      </c>
+      <c r="E23">
+        <v>0.47</v>
+      </c>
+      <c r="G23">
+        <v>0.47</v>
+      </c>
+      <c r="I23" t="str">
+        <f>_xlfn.CONCAT("(",L23,",",M23,")")</f>
+        <v>(6,0.473)</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>(6,0.473)</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>_xlfn.CONCAT("(",C24,",",D24,")")</f>
+        <v>(7,0.47)</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>0.47</v>
+      </c>
+      <c r="E24">
+        <v>0.36</v>
+      </c>
+      <c r="G24">
+        <v>0.36</v>
+      </c>
+      <c r="I24" t="str">
+        <f>_xlfn.CONCAT("(",L24,",",M24,")")</f>
+        <v>(7,0.789)</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>(7,0.789)</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>_xlfn.CONCAT("(",C25,",",D25,")")</f>
+        <v>(8,0.57)</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E25">
+        <v>0.47</v>
+      </c>
+      <c r="G25">
+        <v>0.47</v>
+      </c>
+      <c r="I25" t="str">
+        <f>_xlfn.CONCAT("(",L25,",",M25,")")</f>
+        <v>(8,0.421)</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>(8,0.421)</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>_xlfn.CONCAT("(",C26,",",D26,")")</f>
+        <v>(9,0.421)</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I26" t="str">
+        <f>_xlfn.CONCAT("(",L26,",",M26,")")</f>
+        <v>(9,0.526)</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>(9,0.526)</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>_xlfn.CONCAT("(",C27,",",D27,")")</f>
+        <v>(10,0.36)</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0.36</v>
+      </c>
+      <c r="E27">
+        <v>0.63</v>
+      </c>
+      <c r="G27">
+        <v>0.63</v>
+      </c>
+      <c r="I27" t="str">
+        <f>_xlfn.CONCAT("(",L27,",",M27,")")</f>
+        <v>(10,0.421)</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,0.421)</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>AVERAGE(D18:D27)</f>
+        <v>0.47409999999999997</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(E18:E27)</f>
+        <v>0.53199999999999992</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGE(M18:M27)</f>
+        <v>0.5101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>_xlfn.CONCAT("(",C30,",",D30,")")</f>
+        <v>(1,0.42)</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ref="A31:A39" si="2">_xlfn.CONCAT("(",C31,",",D31,")")</f>
+        <v>(2,0.42)</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="2"/>
+        <v>(3,0.36)</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="2"/>
+        <v>(4,0.42)</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
+        <v>(5,0.57)</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>(6,0.68)</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>(7,0.36)</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>(8,0.52)</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>(9,0.42)</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>(10,0.42)</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>AVERAGE(D30:D39)</f>
+        <v>0.45899999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>

--- a/cep-report/Evaluation.xlsx
+++ b/cep-report/Evaluation.xlsx
@@ -18943,7 +18943,7 @@
   <dimension ref="A2:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
